--- a/testData/dataset.xlsx
+++ b/testData/dataset.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="134">
-  <si>
-    <t xml:space="preserve">very positive</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+  <si>
+    <t>very positive</t>
   </si>
   <si>
     <t xml:space="preserve">This is great stuff.
@@ -30,7 +25,7 @@
 effort! </t>
   </si>
   <si>
-    <t xml:space="preserve">positive</t>
+    <t>positive</t>
   </si>
   <si>
     <t xml:space="preserve">Great progress. Thanks Sajith for the update.
@@ -45,7 +40,7 @@
 Thank you, </t>
   </si>
   <si>
-    <t xml:space="preserve">very negative</t>
+    <t>very negative</t>
   </si>
   <si>
     <t xml:space="preserve">The below Opportunity was Lost: 
@@ -70,7 +65,7 @@
 Thank You </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi
+    <t>Hi
 The below Opportunity was Lost:
 Opportunity Name: SGIT : Super Markets
 Record Type: First Sale
@@ -90,10 +85,10 @@
 Number of Pre-Sales Activity: 0</t>
   </si>
   <si>
-    <t xml:space="preserve">negative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry for multiple messages :)..
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Sorry for multiple messages :)..
 Also, in /APIMIntegrationBaseTest.java
 &lt;https://github.com/mushthaq33/product-apim/commit/19e35997be2ca9339a16678118b974f4226da779#diff-0cf3e107dd64019c6e5cdecd2b06e3e1&gt;
 are reducing the wait time from 45(s?) to 10. That might work in your
@@ -105,10 +100,10 @@
 Shouldn't we fix the synchronisation problem properly?</t>
   </si>
   <si>
-    <t xml:space="preserve">neutral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you Mokshi!
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>Thank you Mokshi!
 Regarding Hello Group providing accommodation for our trainers and
 consultant - we have informed the customer the preferred hotel for the
 team, on mail. I have also informed that the accommodation cost that has
@@ -121,12 +116,12 @@
 me know please :)</t>
   </si>
   <si>
-    <t xml:space="preserve">Thanks Hashan!
+    <t>Thanks Hashan!
 one more point regarding the timeline: They are currently evaluating only
 open source vendors and they hope to go live by early 2018.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Chanaka
+    <t>Hi Chanaka
 Cell Card is insisting that the service engagement durations provided in
 the proposal is too much. Would it possible to share the task breakdown
 along with the days for the scope of the proposed service engagement, so
@@ -137,7 +132,7 @@
 Thank you,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sanya
+    <t>Hi Sanya
 No worries. Lets schedule the call for Thursday(7th Dec) as the technical
 owner for Hello Group would not be available on Monday to take up the call.
 Can we do 11 am SAST on Thursday, 7th Dec please? Let me know if the time
@@ -170,7 +165,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The below Opportunity was won: 
+    <t>The below Opportunity was won: 
 Opportunity Name: State Audit of Vietnam - IS project
 Owner: Ruvindi De Silva
 Technical Owner: Johann Nallathamby
@@ -185,7 +180,7 @@
 Thank you</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Mokshi
+    <t>Hi Mokshi
 Would you be able to share the renewal contract for Mercedes Benz based on
 the following deployment please?
 2 Production instances for ESB
@@ -201,7 +196,7 @@
 Ruvindi</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Inthi
+    <t>Hi Inthi
 Nadeesha and I had a chat with Asanka and Gihan from PickMe. They said that
 they are willing to buy production support. However before going to
 production, Nadeesha recommended we do a one day architecture review. The
@@ -213,7 +208,7 @@
 Thank you,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Asanka
+    <t>Hi Asanka
 Thank you for your time over the call just now. As discussed, I would like
 to bring to your notice that the development support hours for PickMe is
 closing in and we would be happy to assist you further via our production
@@ -224,7 +219,7 @@
 Ruvindi</t>
   </si>
   <si>
-    <t xml:space="preserve">They don't use WUM pack. That is not what I meant. When I meant is EI is a
+    <t>They don't use WUM pack. That is not what I meant. When I meant is EI is a
 collection of several binaries.
 S.Uthaiyashankar</t>
   </si>
@@ -241,12 +236,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Why do we need everyone to discuss this? Why not first talk to WUM team and
+    <t>Why do we need everyone to discuss this? Why not first talk to WUM team and
 figure if we need platform wide changes. I do not think we know that yet.
 Thanks,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Trishan,
+    <t>Hi Trishan,
 Sorry but today has been busy!  We had Sprint Review meeting when you called and a crisis cropped up which required all-hands on deck. 
 What happened is that a developer on our team downloaded the free-ware version of WSO2 and I spent lots of time entering API details of 67 API calls into the WSO2 Publisher.  Life was great, users accessed WSO2 Store and information flowed.
 Then one day back in July, WSO2 stopped working.  The developer who originally installed WSO2 downloaded and reinstalled.  But WSO2 still does not work. 
@@ -254,7 +249,7 @@
 Thanks in advance for any help you can give me.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Nuwan, Hi Yohanna,
+    <t>Hi Nuwan, Hi Yohanna,
 I have been reassigned DOJ from Shanaka's accounts, so now I'm doing some due diligence and getting everything sorted for what would be the next steps.
 @Nuwan- According to SF you are the TO for DOJ.
 DOJ has requested Training - 2 day on-site APIM training, 1 trainer and 1 lab assistant. Dates have not been finalized yet, I am planning on reaching out to one of our DOJ contacts, Deng, to schedule a call to get further details.
@@ -264,7 +259,7 @@
 Thanks!</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi
+    <t>Hi
 The below Opportunity was won:
 Opportunity Name: EI QSP
 Owner: Sandra Liu
@@ -280,7 +275,7 @@
 Thank you</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sreedhar, Milan,
+    <t>Hi Sreedhar, Milan,
 I thought I should start the renewal process a bit early so that we are on time to renew the account. Let me know if you would be the person I should liaise with to get the ball rolling?
 Sreedhar, we have a small change to our Support Model starting January 2017. The new model is more designed to provide added value to our existing and new customers who are coming onboard. Of course, the agreed terms and conditions will stay unchanged for both of us. I've attached a document that explains the new Unified Support Model. Please do take some time to go through.
 The new unified model will provide support coverage for all your pre-production instances. Basically, extending the same production SLA for your pre-production instances and providing unlimited Incidents tickets. This model also provides complimentary Development/Query support based on the amount you pay for Subscriptions. I'm happy to discuss this further when time permits. Let me know what time is best to sync up.
@@ -288,7 +283,7 @@
 Trishan.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuwan and I had a call with Razvan (Architect) and Shankar Rao (Senior Engineer) who is currently working in the ESFS team (Enterprise Services and Financial Systems). They are currently using our ESB 4.9v for internal use and the current footprint is very small!
+    <t>Nuwan and I had a call with Razvan (Architect) and Shankar Rao (Senior Engineer) who is currently working in the ESFS team (Enterprise Services and Financial Systems). They are currently using our ESB 4.9v for internal use and the current footprint is very small!
 WSO2 API-M requirement from the Corporate IT team
 Currently, they are using Apigee for external use and now looking to use an API-M for all their internal use. All the data that's generated through the external API-M will come to the internal API-M. They are looking at us for this use. 
 Microservices
@@ -308,20 +303,20 @@
 We need to do a POC for this task, which will take 4-5 days to give an exact estimation on this. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Nick,
+    <t>Hi Nick,
 That's great news!
 I would be happy to share the contracts to formalize the subscription as soon as possible. However prior to executing the contracts, it would be great if we could have a technical discussion with a WSO2 Solutions Architect to validate the architecture and deployment of this project.
 Appreciate if you could share a time slot convenient to the team to have this discussion.
 Looking forward to hear from you and hope you have a great weekend!</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Tharinda,
+    <t>Hi Tharinda,
 Other than the BPS documentation, Will try to find some case studies for BPS. It's great to see them looking at our products in this way and we should take this opportunity to showcase our products more and get them to use the products for other areas outside of PSD2/OB. I believe our best option is to have Senaka visit them, as proposed.
 Regards,
 Vidura</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Tania,
+    <t>Hi Tania,
 We need to raise a change request as an addendum to the SoW signed with Bank of Cyprus UK. The information we need to capture in the document are provided below:
 1. How the WSO2 Enterprise Integrator: Business Process Profile (WSO2 BPS) will be used and any reuse opportunities the Bank will have of the WSO2 Enterprise Integrator: Business Process Profile.
 This information can be found in the document [1]
@@ -332,7 +327,7 @@
 Tharinda</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Maarten,
+    <t>Hi Maarten,
 Hope you are doing good, it was great that we finally got a chance to meet each other at the conference :)
 Were you able speak to Peter, were you able to get a status update? sorry I couldn't drop in a reminder last week. 
 Best regards,
@@ -372,7 +367,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Smaller the better. Use 2 core 2 GB with 1 GB for JVM in all instances.
+    <t>Smaller the better. Use 2 core 2 GB with 1 GB for JVM in all instances.
 ​These can be another variable in the test dimensions where you can script
 and vary on various clouds.
 No need to block on this one.
@@ -382,7 +377,7 @@
 time. Then only we should look to other clouds.</t>
   </si>
   <si>
-    <t xml:space="preserve">The objective of this project is to cut the overall build time.
+    <t>The objective of this project is to cut the overall build time.
 If you are not aware of the implications after weeks of work on this, that
 is a serious problem to achieve the overall project objectives.
 Please go back to project planning drawing board and reassess your strategy
@@ -390,7 +385,7 @@
 Left.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi All
+    <t>Hi All
    It has come to notice that, even at this point, with multiple tools
 being made available, people seem to ask customer various basic questions
 about setup and products.
@@ -415,7 +410,7 @@
 Thanks,</t>
   </si>
   <si>
-    <t xml:space="preserve">Also, we have 94 issues, are we working on fixing them?
+    <t>Also, we have 94 issues, are we working on fixing them?
 And what are our test plans? I do not see agressive issue creation in the
 git space. Probably meaning we are not testing this enough or this is so
 stable.</t>
@@ -432,7 +427,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I do not think we can slush issues just like that.
+    <t>I do not think we can slush issues just like that.
 IAM and EI teams did this on a certain model.
 Please talk to IsuruU, RuwanA, Nandika, Sagara and they should know
 Thanks,
@@ -453,12 +448,12 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">So, I am still trying to understand this current analysis. Are we saying
+    <t>So, I am still trying to understand this current analysis. Are we saying
 none of these patches related issues we could find in the current test
 cycles?</t>
   </si>
   <si>
-    <t xml:space="preserve">All feature request should go to relevant product redmine. Thats where we
+    <t>All feature request should go to relevant product redmine. Thats where we
 capture all customer related information.
 For RRT team's request, my proposal is following:
    1. In addition to the redmine entry, create a task in github issue in
@@ -477,13 +472,13 @@
 Thoughts?</t>
   </si>
   <si>
-    <t xml:space="preserve">​If we have too many customers, then we need to have duplicates in the
+    <t>​If we have too many customers, then we need to have duplicates in the
 list. Do we have duplicates?
 If we get our docs right, even if we have volume we will end up copying
 from docs and pointing customers to doc URL</t>
   </si>
   <si>
-    <t xml:space="preserve">​We used to use Cassendra for our products but we do not use that any more.
+    <t>​We used to use Cassendra for our products but we do not use that any more.
 Do we recommend that to customers?
 ​That is not good I suppose. What about others such as Mongo, Hbase and
 many others? ​
@@ -496,27 +491,27 @@
 in NoSQL space?</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the progress of this project now? Are we done testing IAM with all
+    <t>What is the progress of this project now? Are we done testing IAM with all
 scenarios? Are we done testing with the use cases?
 We need to move on to API-M
 Thanks,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Mokshi, the requested details are for the consultancy service.
+    <t>Hi Mokshi, the requested details are for the consultancy service.
 Had a chat with SCB now as well and they require the LK details for now. It
 would be one entity that they would contract with going forward and
 according to Shan, if their legal team decides to contract with any other
 entity we could share the details at that point.</t>
   </si>
   <si>
-    <t xml:space="preserve">​If that is the case, then the customer needs to provide that information
+    <t>​If that is the case, then the customer needs to provide that information
 when they create the ticket.
 Need to rationalize to them why it is vital for them to provide any changes
 they made that we do not know of.
 Complains are NOT in this space. Hence we cannot generalize this case.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorry, my requirement was that each team should independently make
+    <t>Sorry, my requirement was that each team should independently make
 progress. Meaning, one team shouldn't get blocked due to other teams
 progress. It doesn't need to be 3 individual apps. Also, it doesn't need to
 be single app as well, IMO. What ever make sense is fine. Even if you look
@@ -530,7 +525,7 @@
 these frameworks.</t>
   </si>
   <si>
-    <t xml:space="preserve">Above statement is not 100% correct. It doesn't need to be filters for
+    <t>Above statement is not 100% correct. It doesn't need to be filters for
 "each" customer.
 From the technical side, we give facility for business to define a channel
 and associate a filter to a channel. Assets will get filtered by the filter
@@ -540,7 +535,7 @@
 customers.</t>
   </si>
   <si>
-    <t xml:space="preserve">I am not clear on what we wanted to achieve here.
+    <t>I am not clear on what we wanted to achieve here.
 How do we specify the "infrastructure configuration" in the image given
 below?
 How other stakeholders (customers, people going for services, solution
@@ -552,7 +547,7 @@
 deployment. Can we achieve that objective using this approach?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sascha, 
+    <t>Hi Sascha, 
 Sure sounds good! 
 Would appreciate if we could also touch base on the technical aspects and the timelines via a call once you get back to us with the contract and next steps. 
 Look forward to hearing from you!
@@ -560,11 +555,11 @@
 Hasini</t>
   </si>
   <si>
-    <t xml:space="preserve">From Ballerina 0.95.0 release onwards we are not packing any external connectors like Salesforce, Twitter etc (which were in connector repo [1] earlier) with the ballerina tools distribution. It was decided to keep them in separate repos and release independently [2]. There are two repos created for twitter [3] and Salesforce [4] connectors already, but both of them are not updated and released. 
+    <t>From Ballerina 0.95.0 release onwards we are not packing any external connectors like Salesforce, Twitter etc (which were in connector repo [1] earlier) with the ballerina tools distribution. It was decided to keep them in separate repos and release independently [2]. There are two repos created for twitter [3] and Salesforce [4] connectors already, but both of them are not updated and released. 
 So what is our strategy for keeping these ballerina connectors up-to-date and will connector team still looking into these? IMO we need to update and release them, since some connectors like Salesforce, twitter which were released with previous ballerina versions are already used by some parties.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi, 
+    <t>Hi, 
 are we considering to have a "NPM like" approach for Ballerina connectors? It would be very nice for the community to contribute and consume. My opinion is that this approach has been motivating more and more developers to adopt Node.js and its derivatives. 
 Something like this:
 ballerina connector install cpf-validation ( default public registry )
@@ -573,21 +568,21 @@
 I am still learning, so sorry if that doesn't look like the right syntax :-</t>
   </si>
   <si>
-    <t xml:space="preserve">Do we have any recent Ballerina slide deck or demo that I could use to pitch the project to potential US team members (evangelism, etc.)?
+    <t>Do we have any recent Ballerina slide deck or demo that I could use to pitch the project to potential US team members (evangelism, etc.)?
 Sanjiva's con talk was great but was mostly an update on the status - not the overview of Ballerina as such. Earlier intro talks seem outdated in terms of positioning and vision.
 Anything newer or I just need to come up with some interim solution myself for now?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi All,
+    <t>Hi All,
 Current http Request Response structs doesn't have Ballerina level data, All things are handled as native data. But when we route incoming requests, we anyway need to read the headers and see how to do the routing, So how about enriching Request Response objects with those already populated data? That will allow users to interact with Request Response structs more intuitively rather than blindly manipulating them as native data. WDYT?</t>
   </si>
   <si>
-    <t xml:space="preserve">This approach is okey for the C5. But we also need a similar approach for C4 products as well. We will be using C4 products with the channels strategy initially. So it is must that the WUM tool support delivering new features for those products too. 
+    <t>This approach is okey for the C5. But we also need a similar approach for C4 products as well. We will be using C4 products with the channels strategy initially. So it is must that the WUM tool support delivering new features for those products too. 
 We talked about using "dropins" approach for delivering new jars (coming from new features), but it looks like it will not solve all the cases. For example, if the RRT team is developing a new feature (a minor or patch) for an existing feature (say feature f , version 1.0.0 -&gt; 1.1.0), then the dropins approach will have some issues to deal with, where we have to first delete the old jars/resources and then install the new jars/resources. Due to this, we have to have a similar solution also for C4 based products. We will have to solve the issues on how to handle non-feature related resources (conf files, scripts, etc. that are copied during assembly phase) for C4 products too.
 Thanks,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Lakshika, Hi Chathura,
+    <t>Hi Lakshika, Hi Chathura,
 Please note that we have been invited to take part in a tender for Loughborough University. The invitation has come in last week during Con days. However please note below timelines for this tender.
 Issue Invitation to Tender (ITT) 7th November 2017
 Closing date for receipt of Tenders 1st December 2017, 12:00 noon
@@ -609,7 +604,7 @@
 I am hoping that you are in agreement with the concessions we have made in the MSA so that we can move forward. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Angela, 
+    <t>Hi Angela, 
 The MSA is good to go. We have made a very small edit to the extension of services. We have included that the services can be extended only up to 3 weeks provided Vonage gives us advanced notice and the 3 weeks is not used separately. We have attached the edited version. Let us know if we should send you a signed copy?  
 Thanks!</t>
   </si>
@@ -619,7 +614,7 @@
 Regards, </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi
+    <t>Hi
 The below Opportunity was Lost:
 Opportunity Name: PS for ESB + MB
 Record Type: First Sale
@@ -642,7 +637,7 @@
 Thank You</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Devaka
+    <t>Hi Devaka
 The below Renewal Opportunity was Lost:
 Opportunity Name: PS Renewal - Auto Created
 Account Name: Dialog Axiata PLC
@@ -659,7 +654,7 @@
 Thank You</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi
+    <t>Hi
 The below Opportunity was Lost:
 Opportunity Name: SOMFY-PS
 Record Type: First Sale
@@ -693,7 +688,7 @@
 Regards,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Luis,
+    <t>Hi Luis,
 Thank you for sharing this information with us. I will forward this query to our Solutions Architecture team for feedback and get back to you promptly.
 I have also attached herewith the latest WSO2 Support Pricing document and the WSO2 Support Services Policy document for your perusal. You can find more information regarding WSO2 Training and Certification at the link below:
 WSO2 Certification
@@ -709,7 +704,7 @@
 Tharinda</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Tharinda,
+    <t>Hi Tharinda,
 It seems that finally Produban is asking for some kind of support for the Wso2 API Manager.
 They want the support being offered through us as usual, as we are already used to work with Produban financial department and we can also offer support in spanish.
 So we'd like to talk to you again as soon as possible in order to clarify how this can be done and what is needed for us to become an Wso2's partner. ¿Could it be on Friday's morning? I don't remember your timezone so please tell us which one it is and what time you prefer.
@@ -744,33 +739,33 @@
 This may need a complete PCF environment (since OpsManager is not available on PCF Dev) and that may need around 50 VM instances on AWS. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Garry, Hi Huw,
+    <t>Hi Garry, Hi Huw,
 Trust this finds you well.
 Sorry I couldn't contact you last few days since we had our Conference and then was travelling back to Sri Lanka. As we discussed during our last call, would appreciate if you could share us the questions which we planned to discuss. We could then go through the same and schedule a call to discuss and work on the next steps.
 Looking forward to hearing from you soon.
 Cheers!</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Harsha,
+    <t>Hi Harsha,
 No we do not have an update in around 10 days or so, from them. See threads "WSO2 not sending registration emails", "Re: WSO2 - PA Consulting : Renewal Paperwork FY 2017 / 2018" in addition to this thread. 
 Given there is a long period of silence, I believe their issue should be solved completely or to an acceptable level. Or they should have lost all faith in us and looking at something else - but I wouldn't expect this to be the case, since there is no communications from them or us, suggesting that.
 My suggestion would be for @Prado to drop an e-mail to James Buss and Priya, continuing those conversations and get them to come back to us with an update.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Shehan,
+    <t>Hi Shehan,
 they are in production now Axis with an simple API and i have also three people from Axis that will come to the workshop in Stockholm next week. This team is also working with the api manager and even one is their manager. I haven't got any indication when they are interested to go for a subscription. I suppose that they have to implement more API:s and after having more critical api:s that they will buy a subscription. 
 I have now registered 7 people for you and wonder if there is more of my contacts that will show up on the workshop in Stockholm? I have sent a personell e-mail to 200 of my architects regardin IAM workshop in Stockholm. Can you send me al list of all the registered people for the workshop? I am still waiting for answers fromsome people for the workshop.
 Thanks in advance.
 BR Marjan</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sadhi,
+    <t>Hi Sadhi,
 I'm sorry but I won't be able to take this call at 4pm on the 14th, since my flight to Netherlands would depart London sometime between 5pm - 6pm. I can do anything but before 2pm (just to be on the safe side). If the objective is for them to meet with @Asanka, please go ahead. He should be office all day on the 14th.
 Thanks,
 Senaka.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sadhana
+    <t>Hi Sadhana
 I hope this finds you well.
 Sadhana, I am afraid both Luis and myself are flat out with the PSR opportunity we are working on. Thank you for the invite however.
 On that note Sadhana, we have now successfully delivered our Demo to the client (which required all hands on deck as you know) and are now preparing to mobilise for stage 4 and 5 of the process. It is a very tight timeline as you can probably appreciate and we would like to get back together with yourselves to re-engage around the technical solution and the various requirements that are needed.
@@ -788,7 +783,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Stuart,
+    <t>Hi Stuart,
 Hope you are keeping well. 
 We have not synced up on this opportunity for a few months now, and I do apologise for the silence from my end too. Would you be able to send us a quick update, or be available for a call to discuss where things stand?
 Thank you and best regards
@@ -803,7 +798,7 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sajaad,
+    <t>Hi Sajaad,
 Thank you for the effort and help to set the call up as well. I think the call went well and it was very informative. We look forward to hearing from you on the next steps.
 On a separate note, I would like to introduce you to Eshara Fonseka, Director Sales who will help move this effort forward from a commercial stand point. Mifan will continue to be your main point of contact from a technical stand point. Eshara is well experienced with handling large enterprise customers and suited to handle such a large opportunity. I have shared the information we discussed on both calls today with Eshara and she is already up to speed.
 We look forward to working with you with this opportunity and many more in the future.
@@ -818,13 +813,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Ruvindi,
+    <t>Hi Ruvindi,
 Attached is addendum 1, the exact name of the SCB entity signing this will have to be inserted in this addendum so we know who the licensee for the Updates subscribed here would be since the framework agreement is or all SCB group entities. This addendum would be for 1 year and 2 months as have been requested by SCB. I have given the breakdown for the fee and the complimentary dev support hours under other terms. Have we also made it clear that the total fee would have to be paid upon signing of this addendum? It will be better to get this confirmed since SCB insisted on a payment schedule for the service part of the engagement.
 Thanks,
 Mokshi</t>
   </si>
   <si>
-    <t xml:space="preserve">Nadeesha,
+    <t>Nadeesha,
 As discussed with you I have added in wording to narrow down the actual work done for items 1, 6 and 7 to only what can be done within the duration and resource commitment in the letter, anything more to be mutually agreed. The acceptance criteria for items 3 and 4 (acceptance criteria to items 6 and 7 of the scope) was also narrowed down. I've attached the ATP, as well, any more concerns you have on the wording?
 Thanks,
 Mokshi</t>
@@ -837,7 +832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Nadeesha,
+    <t>Hi Nadeesha,
 As discussed the items under acceptance will be delivered during different stages of the services. For instances the checklist and documentation to be after the services are complete and the training and sample code will be provided during the performance of the services. So I have amended the wording as follows to capture the point when they will be delivered. Immediately once these are delivered it will be deemed that the services are accepted. 
 The parties agree that the Services shall be deemed accepted upon delivery by WSO2 of the following:
 1. Report on checklist on SCB set up which shall be delivered upon completion of the Services subject to SCB providing us with the checklist.
@@ -849,7 +844,7 @@
 Mokshi</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruvindi, as discussed on chat SCB has included a payment plan:
+    <t>Ruvindi, as discussed on chat SCB has included a payment plan:
  20% (US$ 5,200) to be paid upon signing of the ATP and the remaining 80% (US$ 20,800) will be paid only after the services are completed. They have specified acceptance testing and this will have to be satisfied for the services to be considered complete.
 @ Nadeesha, can you please check acceptance testing in page 5? For me it looks very vague and part of the scope. Especially item 4  " Hands on Product Training", does this mean we have to train them? 
 Since 80% of the fees depend on successful completion of the services we need to make sure that the acceptance testing section is vetted and clearly drafted. We will also have to define at what point the acceptance is complete i.e. will they be providing us a written confirmation.
@@ -858,14 +853,14 @@
 Have cleaned up the doc except for these points.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Ruvindi,
+    <t>Hi Ruvindi,
 Attached is the reviewed ATP, we made a few changes and added in a few clauses such as acceptance, warranty disclaimer, limitation of liability etc... which will govern the on-site service specifically mentioned in the ATP. This will make sure that the service terms will still govern the services until the agreement is signed. 
 I also included the scope with a qualification that if work to be performed under item 6 goes beyond the effort, resource commitment and fees in the letter, then parties will consensually agree to extend the services and resource commitments for such extra work. 
 Thanks,
 Mokshi</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Mokshi,
+    <t>Hi Mokshi,
 I understand..As discussed, we would really appreciate if we could send out the red lined contract at our earliest as we are hoping to close it for this quarter. Try your best Mokshi :) 
 Will get going on this and will send it out asap. In the meantime can you give me engagement details e.g: details of support and services to be provided. Are we giving them training as well? Also noticed that the contract is out of SCB in England and not Singapore. Which SCB is our customer? Will this be like a global framework agreement enabling any of SCB affiliates to buy under this?
 - Support - we have shared the proposal (attached) to indicate support from August - December 2017. However we would now need to show this as October - December 2017 (3 months)
@@ -880,7 +875,7 @@
 Ruvindi</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi All, 
+    <t>Hi All, 
 A Kind reminder on this. We are forming the WSO2 Toastmasters Club and all are invited to join. 
 Commitment will be just two meetings in a month which will be on the 1st and 3rd Wednesday. Payment will be roughly 3500/= to be paid twice in a year (Totaling 7000/= for the whole year). 
 Members will get to 
@@ -893,7 +888,7 @@
 Regards,</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Nuwan,
+    <t>Hi Nuwan,
 We have started to monitor and analyze the user experience of the users on WSO2 API Cloud using hotjar analysis. We observed through them that the users are somewhat confused on the whole key generation and subscription part of the API Store. We observed that some users go back and forth unnecessarily to achieve even the most basic tasks in the API Store . Most users are not keen on reading the documentation hence the reason we feel this walk through would be a very important improvement. We have noticed that users of our API publisher have been benefiting greatly through the publisher walk through introduced.
 We had even certain customers who specifically requested if this could be provided for the store since some guidance for the invocation cycle of the store would help their end user community. 
 We would really appreciate if this could be prioritized and provided through a WUM update. 
@@ -909,7 +904,7 @@
 How can we improve this? </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Nuwan,
+    <t>Hi Nuwan,
 For centrally managing the information of the reported vulnerabilities, we have been evaluating Defect Dojo [1] tool. When we receive a scan report (generated using a well known security testing tool), this provides the capability of importing the report, parses and feeds all the issues to a database. Then for each issue, we can mark whether it's false positive or true positive.
 Also we can add information for each vulnerability (like the fixed commit numbers, patch numbers etc.). This way, when a new scan report comes, we can import it through this and isolate the vulnerabilities which are not reported previously (not already fed to the system). 
 This is an ongoing effort and discussed in mail thread [2].
@@ -923,7 +918,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Nuwan, 
+    <t>Hi Nuwan, 
 Apart from the thread Tharindu shared regarding initial evaluation of DefectDojo, the mail thread [1] discusses the overall strategy on security automation, scanning and scan report analysis. This explains how scanning tools like Veracode, Qualys and Dependency Check come together and get integrated into a single Security Scanning Portal (SSP) and analysis happens through a central vulnerability database. We are currently working on reaching short-term strategy mentioned there. 
 [1] [Platform Security] Secure Cloud-first Releases Utilizing Security Scanning Tools (strategy@)
 Thank you,
@@ -932,9 +927,6 @@
   <si>
     <t xml:space="preserve">This is a good idea Nuwan, but the problem is, when we provide a dashboard they would expect to see daily updates. And some customers might notice that responses are getting delayed. There are loads of security reports coming in, and we tackle them according to the urgency. For example, FIS and FISERV are the highest priority these days. Sometimes we don't have enough people to work on all the reports at once. Since customers don't see the progress, it is safe to tell that we are in the process of evaluating them. And we usually send them draft versions of the feedback report as and when we can find people to evaluate. So, IMO, we can't do this right now, but once we have completed the security automation platform things will get much efficient and then we can think on this.  
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">​Yeah make sense. But shall we track this via the customer Jira. So when ever we get a report we create a ticket and communicate through that? I think we do that for some already.​</t>
   </si>
   <si>
     <t xml:space="preserve">Hi Vidura,
@@ -967,13 +959,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Tyler,
+    <t>Hi Tyler,
 There are actually some terminology issues here.  A subscription to WSO2 Update is currently a separate “product” from our WSO2 Subscription commercial product.  The public is able to subscribe to WSO2 Update, though the EULA prevents them from using those updates in certain circumstances (namely, production.)
 Part of the upcoming update to a term license allows us to unify these two subscription models into one.  Then your statements will be correct.
 -Jonathan</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, in non-production environments. Updates are licensed for anyone to use freely for development, test, and staging. We want everyone evaluating, developing on, or preparing WSO2 products for production deployments to have the best experience – and especially not trip over a bug that has already been fixed! However you cannot push the updates into a production environment without a paid subscription for that product. You will have to wait for one of our periodic dot releases that roll up all recent updates into an open source release that can be used in production for free.</t>
+    <t>Yes, in non-production environments. Updates are licensed for anyone to use freely for development, test, and staging. We want everyone evaluating, developing on, or preparing WSO2 products for production deployments to have the best experience – and especially not trip over a bug that has already been fixed! However you cannot push the updates into a production environment without a paid subscription for that product. You will have to wait for one of our periodic dot releases that roll up all recent updates into an open source release that can be used in production for free.</t>
   </si>
   <si>
     <t xml:space="preserve">Hi Shankar, 
@@ -1008,7 +1000,7 @@
 Also, the next step is to implement the monitoring and result generation part. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear all,
+    <t>Dear all,
 I have got some links from you in July.
 Now I have a concrete example use case and I would like to ask you how it could be solved with your tools:
 1. I need to get values from about 400 data items from 70 different organizations. These 70 organizations are fully autonomous and their systems, including platforms and databases, schemas etc are totally different from each others. But they have these 400 data items in their systems.
@@ -1021,7 +1013,7 @@
 =&gt; What kind of approach are required in order to fulfill all those 6 requirements?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Pekka
+    <t>Hi Pekka
 Thank you for your mail and sharing the details of the use case with us. The project sounds very interesting and we'd be happy to assist you with it!
 It would be great if we could set up a quick call for a preliminary discussion so that I could help you with the right information and determine the best approach to take this project forward!
 Do let me know your availability for tomorrow please? How about 11.30 am GST tomorrow, 5th Dec? I'd be happy to share an invite across based on your availability.
@@ -1029,7 +1021,7 @@
 Ruvindi</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Joaquim,
+    <t>Hi Joaquim,
 Thank you for your swift response and clarification. Yes then Amine and Olivier are working on separate other projects. We arrange a demo for that team and showcased our product capabilities. Our next step was to hear back from them once the RFP is ready to be rolled out and we are yet to hear back from them.
 However your project is very interesting and we are delighted to assist you move forward. 
 As you are aware our products are open source and the enterprise ready versions are freely available to be downloaded directly from the website. We assist and provide support / services throughout the entire life-cycle of the project. Our QuickStart program is initially set up to provide a PoC which can be used to develop the actual project. Throughout the development phase our consultancy services provide online support &amp; onsite/offsite services. 
@@ -1039,7 +1031,7 @@
 I have attached our pricing document as well as the support services policy.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi, thank you for your contact.
+    <t>Hi, thank you for your contact.
 Amine and Olivier must be colleagues from other countries involved in other RFPs, I am involved in RFPs for Portugal so I do not have visibility of their work.
 Would be nice to know details about any previous arrangement , collaboration our partnership between Altran and WSO2, that we may leverage after this work.
 But right now I have a very large RFP whose scope is to create a solution for the Portuguese Government that intends to integrate all the Commercial Ports of Portugal into a single service oriented solution.
@@ -1070,7 +1062,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Pradeeshan,
+    <t>Hi Pradeeshan,
 There is no need to apologize, Chanaka has been great in answering our questions and especially fast. It has helped us a lot to solve the discussion quickly among our team.
 About the evalutation support account, it would be indeed great for you to reopen it. It is of great value for us, the answers are very precise and fast.
 About the proposal, my collegue in charge of this has received the new proposal from Ugap the day before yesterday, and will have time on Monday to send our acceptation back to Ugap.
@@ -1088,7 +1080,7 @@
     <t xml:space="preserve">Once Matrix shares the PO with us, we would be able to initiate an allocation request for the QSP consultants from our end. At this point, I would be able to provide a rough indication of the engagement commencement date. Therefore from the point of receiving the PO - we would require up to about 4 weeks. If we are able to receive the PO within the course of this week, I will be able to check with the team if we would be able to commence the QSP by around second week of January 2018. However, please note that the consultants would not be able to engage in any activities onsite till the contract is fully executed. </t>
   </si>
   <si>
-    <t xml:space="preserve">Dear Ruvindi
+    <t>Dear Ruvindi
 Thak you for the mail. I didn't notice your phone call but I am not good at speaking English.
 Actually I just downloaded the document for reference, hence I don't need any assistance so far.
 I will contact you again by email when needed.
@@ -1103,13 +1095,13 @@
 Please suggest a time we can have a call on this, ideally today if possible!</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi all,
+    <t>Hi all,
 Guys, e-mails lack a lot of context and contains a lot of people on CC. These kinds of things are better discussed over phone (regardless of how long it takes to have that call). The reason for James asking why we can't do this onsite is probably because he believes that we are unable to resolve this issue in a matter of few steps. This is not the impression that he should be getting. We should be telling him that the person coming onsite is as a gesture of good will to make sure things are dealt with promptly and also to help them out with anything else they may have. We should explain what we are intending to do very clearly. The few lines on the e-mail does give out an entirely different meaning.
 Thanks,
 Senaka.</t>
   </si>
   <si>
-    <t xml:space="preserve">Please note that I tried getting through to James via phone but he is in and out joining meetings so he wants to clarify a point and requesting to send via email;
+    <t>Please note that I tried getting through to James via phone but he is in and out joining meetings so he wants to clarify a point and requesting to send via email;
 He says that the system in the cloud and they can screen share hence he wants to understand why the issue can't be resolved remotely.
 I sent a reply explaining as below;
 "However I would like to explain that the reason we are willing to send our consultant onsite for a week is as a gesture of goodwill and to help in completing the migration. Coming on site will surely help both teams to resolve the issues / errors faster. This will help them complete the remaining tasks and if any errors occur they could work on those then and there.
@@ -1123,7 +1115,7 @@
 So might be easy to do that by herself(Priya) because of the experience that are taking by this. WDYT ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Shevan,
+    <t>Hi Shevan,
 Based on this discussion, we all feel that we need to send one of our consultants onsite to India and help Priya to finalise the migration. This will be a value addition for PA and they will be glad to hear that we are going this extra mile to help them out.
 This will be an action item that we are taking in order to retain the customer and continue our business relationship with them. At the moment James is quite frustrated since the migration hasn't been completed and at his view, he is not receiving the expected level of support for his investment. Once we send someone onsite, and when the migration is completed, we can work on their SSO evaluation and then work towards brick-walling them.
 Appreciate your approval in sending a Product Specialist (IS) to India may be for a week.
@@ -1147,7 +1139,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Bryce,
+    <t>Hi Bryce,
 There is no question WRT the importance of this account to us.
 I'm happy to have a call with James at any time, and I believe that Paul noted that he is happy to meet with him and all as well, but we need to ensure that we can provide them with the right answers and also there must be a guaranteed outcome from those conversations ensuring that we don't lose this account and the opportunities to follow. So, we must speak with them, meet them etc, but, at the right time.
 So, in terms of how and when - I believe that we are eventually getting into a position of providing them with the right answers WRT the migration challenge they have had. But, we still need to ensure we are able to build confidence the same or a similar kind of situation would not happen. If they are not opting for the right kind of engagement with us, we may not be able to guarantee this. That's point one.
@@ -1156,7 +1148,7 @@
 Senaka.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Samisa,
+    <t>Hi Samisa,
 In the offline chat Charnds, Bryce and I had, we feel that it is too late to take responsibility of the migration challenge and solve it. The customer is declining both an onsite meeting with Paul and also our proposal to collocate someone in India, even if it was for free.
 There is a serious disappointment from their side and the reason for having this chat is to find an alternative arrangement for settling this situation.
 There is also some background to the relationships between our customer (PA Consulting) and their customer (the NHS) and also some internal politics (within PA Consulting) that we need to point out, which also seems to be a contributing factor.
@@ -1165,12 +1157,12 @@
 Senaka</t>
   </si>
   <si>
-    <t xml:space="preserve">Mifan,
+    <t>Mifan,
 I spoke with the customer.  It appears they want to explore getting support on IS directly from us vs. Ellucian.  But his question to me:  "In order to get support from WSO2 would I need to install WSO2's distribution or can I continue to use Ellucian's?"   And if they continue to use Ellucian's will WSO2 support that?   A related question is if WSO2 can support IS as part of an Ellucian implementation?  I assume we can, as long as the problems are limited to our stuff and not the ERP software, right?  
 Regards,</t>
   </si>
   <si>
-    <t xml:space="preserve">Thanks for the comments. The customer is not looking to abandon Ellucian WSO2 IS support in favor of WSO2 IS support.  They’re just looking for a higher level of IS support expertise and faster turnaround time on support issues.  And they may be willing to pay for that.  (I’ve given them a verbal quote, and they want a written one.)  But a critical question for the customer is if they would need to install WSO2 bits in order for us to provide IS support, or if they can continue to use the Ellucian IS distribution.  Re. provisioning, they do not need that feature set.  
+    <t>Thanks for the comments. The customer is not looking to abandon Ellucian WSO2 IS support in favor of WSO2 IS support.  They’re just looking for a higher level of IS support expertise and faster turnaround time on support issues.  And they may be willing to pay for that.  (I’ve given them a verbal quote, and they want a written one.)  But a critical question for the customer is if they would need to install WSO2 bits in order for us to provide IS support, or if they can continue to use the Ellucian IS distribution.  Re. provisioning, they do not need that feature set.  
 Regards,
 Rick</t>
   </si>
@@ -1182,14 +1174,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Our technology and business teams have been conducting few initial studies on Siddhi platform and warming up for the proof of concept exercise.
+    <t>Our technology and business teams have been conducting few initial studies on Siddhi platform and warming up for the proof of concept exercise.
 We have few technical questions based on this  initial study on Siddhi platform for which we need clarity before kicking off the POC from our end.
 Could you please let know to whom we can direct these queries ?
 Thanks and Regards
 Malith</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Sanjiva
+    <t>Hi Sanjiva
 We use the "Dual chanel pattern" with a «clustert Message Broker». That was the initial architecture, that was approved with ticket #3 (Feb 2016) by WSO2.
 Now we have the ticket #56, that shows that some of the messages get in the dead letter queue instead of been delivered.
 Moreover, we have performance problems on JMS level and we don’t know how to get along with it.
@@ -1209,7 +1201,7 @@
 Thanks, </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Bryce,
+    <t>Hi Bryce,
 Thank you very much for helping out in getting through to Lorenzo. I will keep pushing Andrea and Stefano so that their involvement will make Lorenzo find a solution in this regard.
 Also I will work with our Legal team regarding the payment terms in the contract to help him expedite the process.
 Thank you,</t>
@@ -1229,7 +1221,7 @@
 I have shared a sheet with some flows and what happens. Need your input to complete this. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hi all,
+    <t>Hi all,
 When someone sends a new PR, there is no way to know the status of the PR until we build and test it locally. We can expect lots of contributions by outside developers in the future. So we need a way to identify the build status of PRs (at least failing PRs) easily without building them locally. We already have Jenkins configured for each repo, but it does not provide build status for PRs at the moment. So we can use one of the following for this purpose. 
 1. GitHub Pull Request Builder Plugin for Jenkins[1]
 2. Travis CI [2]
@@ -1240,7 +1232,7 @@
 However, we have one scenario to think about. Some repos on ballerinalang depends on other repos (eg - ballerina depends on ballerina-parent). So when we send PRs to both repos, the PR sent to ballerina will be failing because the PR sent to the parent is not merged. IMO, this is the expected behavior. But after merging the PR sent to ballerina-parent repo, we might need to trigger a Travis CI build for the PR sent to ballerina repo manually so that the PR status will be updated. But we don't update ballerina-parent often, so IMO, this will not be a big issue as well.</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Dilsi,
+    <t>Hi Dilsi,
 I'm sure this workaround will work. We are more concerned that WSO2 is not able to handle natively large XML files, it is hard to promote WSO2 versus Talend in some debate with our prospects.
 For our production environment, we might use Smooks to split the XML file before the iteration. We prefer to use standard mediators rather than customs.
 As I said to Michael HELM, as we pointed out those performance issues on DSS HTTP calls and XML load, we hope that hours of support will not be deducted from our balance.
@@ -1248,10 +1240,15 @@
 Julien</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi Team,
+    <t>Hi Team,
 Reopening this thread again. We have come across same indexing issue (adding null for facet data type) that we faced earlier in the Nissan production environment Today. As I mentioned earlier, data plays a main role on these issues and we have to test the deployment with real data of Nissan deployment. David agreed to provide the DB dump again (since we haven't downloaded that DB dump last time). Let's verify the deployment once we got the DB dump and fix the issues (if any) and close off.
 Thanks,
 Mohan</t>
+  </si>
+  <si>
+    <t>Hi John,
+In the end, the development teams here felt that TIBCO would be better suited to their needs. They also commented that they felt the TIBCO interface was more user-friendly. For my part, the test data you provided to back up WSO2's performance claims was not sufficient. WSO2's nodes rely on a small latency between API calls. With thousands of users making calls, the system has to not only handle zero-latency between calls, but multiple calls simultaneously. A single node handling 3,500 calls/second (9.2 billion/month) is orders of magnitude faster than all of your competitors' claims. I would expect more robust test results to back that claim up.
+Overall I did like the product, your pricing is very good, and your responsiveness to the RFP and all our questions was greatly appreciated. If I were ever in a position to select an API management platform (or another product for which WSO2 offers a solution), I would not hesitate to include WSO2 in the selection process.</t>
   </si>
 </sst>
 </file>
@@ -1259,53 +1256,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
       <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1313,1511 +1310,2164 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A127" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A150" activeCellId="0" pane="topLeft" sqref="A150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="151.729591836735"/>
-    <col collapsed="false" hidden="false" max="1023" min="5" style="1" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.20918367346939"/>
+    <col customWidth="1" max="1" min="1" style="1" width="11.8775510204082"/>
+    <col customWidth="1" max="3" min="2" style="1" width="6.0765306122449"/>
+    <col customWidth="1" max="4" min="4" style="1" width="144.979591836735"/>
+    <col customWidth="1" max="1025" min="5" style="1" width="6.0765306122449"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.2" r="1" s="5" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>4.147078669352808</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.05" r="2" s="5" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2.492405014489273</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="3" s="5" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="n">
+        <v>4.769075925343406</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="226.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="226.45" r="4" s="5" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="n">
+        <v>-3.342997170285018</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="203.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="203.95" r="5" s="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="n">
+        <v>-3.287347885566345</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="6" s="5" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="n">
+        <v>-2.204124145231932</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="7" s="5" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.280975743474508</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.2" r="8" s="5" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="9" s="5" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="133.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="133.45" r="10" s="5" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.366508333068916</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="1262.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="1262.15" r="11" s="5" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1080470245034004</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="176.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="176.95" r="12" s="5" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.154554539378824</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="94.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="94.45" r="13" s="5" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7504787743864565</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.4" r="14" s="5" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.287191805869677</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="102.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.2" r="15" s="5" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.527525231651947</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.2" r="16" s="5" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="17" s="5" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C17" t="n">
+        <v>1.232495277487639</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.2" r="18" s="5" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3535533905932737</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="19" s="5" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.6787122684390003</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="147.7" r="20" s="5" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.464293939520482</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="305.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="305.2" r="21" s="5" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.06350832689629171</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="22" s="5" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.428127453205375</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="226.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="226.45" r="23" s="5" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4130570344929085</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="24" s="5" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.7626436683612293</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="25" s="5" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C25" t="n">
+        <v>4.20863052149693</v>
+      </c>
       <c r="D25" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="26" s="5" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.963086824686154</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="158.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="158.95" r="27" s="5" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.447655229261006</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91" r="28" s="5" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C28" t="n">
+        <v>3.555634918610405</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="226.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="226.45" r="29" s="5" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.75</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="30" s="5" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C30" t="n">
+        <v>1.503952630678969</v>
+      </c>
       <c r="D30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="31" s="5" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="32" s="5" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C32" t="n">
+        <v>-0.2480694691784169</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="260.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="260.2" r="33" s="5" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.30384048104053</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="46.45" r="34" s="5" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.3123475237772122</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="35" s="5" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C35" t="n">
+        <v>2.115470053837925</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="36" s="5" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.9710084891449471</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="37" s="5" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5303300858899106</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="38" s="5" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.761409691855959</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.2" r="39" s="5" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C39" t="n">
+        <v>-2</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="192.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="192.7" r="40" s="5" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.8408885431648541</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="46.45" r="41" s="5" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="42" s="5" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.9071523309114741</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="46.45" r="43" s="5" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.696310623822791</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="44" s="5" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.7439262401342082</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="45" s="5" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.2721655269759087</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="46" s="5" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.3494816226644151</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="47" s="5" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C47" t="n">
+        <v>-0.7642977396044841</v>
+      </c>
       <c r="D47" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="48" s="5" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C48" t="n">
+        <v>1.408248290463863</v>
+      </c>
       <c r="D48" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="49" s="5" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.055289706022172</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="23.95" r="50" s="5" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3762883473534389</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="51" s="5" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.206045378311055</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="52" s="5" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5852057359806528</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.2" r="53" s="5" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
       <c r="D53" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="54" s="5" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.684257329142735</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="55" s="5" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.81452941745311</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="170.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="170.2" r="56" s="5" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-0.07964201338315557</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="57" s="5" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.738548945875996</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="58" s="5" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.2977713690461</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="451.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="451.45" r="59" s="5" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C59" t="n">
+        <v>-3.291385758707179</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="316.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="316.45" r="60" s="5" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C60" t="n">
+        <v>-2.890891054882004</v>
+      </c>
       <c r="D60" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="496.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="496.45" r="61" s="5" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C61" t="n">
+        <v>-0.3032669857083823</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="62" s="5" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.688247201611685</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="260.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="260.2" r="63" s="5" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C63" t="n">
+        <v>3.625</v>
+      </c>
       <c r="D63" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="64" s="5" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C64" t="n">
+        <v>4.331034764124171</v>
+      </c>
       <c r="D64" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="293.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="293.95" r="65" s="5" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.8674723979493604</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="66" s="5" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.562543950463012</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="67" s="5" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C67" t="n">
+        <v>-3.35921060405355</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="68" s="5" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.3202563076101743</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="69" s="5" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.7171371656006361</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="70" s="5" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.174853901615365</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="158.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="158.95" r="71" s="5" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C71" t="n">
+        <v>3.970208219987808</v>
+      </c>
       <c r="D71" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="72" s="5" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C72" t="n">
+        <v>3.05045146287778</v>
+      </c>
       <c r="D72" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="73" s="5" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C73" t="n">
+        <v>3.696310623822791</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="74" s="5" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.290994448735805</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="75" s="5" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.721335707733946</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="76" s="5" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.721335707733946</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="77" s="5" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.548821299948452</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="78" s="5" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.7720788470807241</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="158.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="158.95" r="79" s="5" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6030226891555273</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="80" s="5" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.597948074201549</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="81" s="5" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.591197566898576</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="248.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="248.95" r="82" s="5" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6107745325136582</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="192.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="192.7" r="83" s="5" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1.926367113173171</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="84" s="5" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.622799155329218</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="85" s="5" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.2797514424720942</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="147.7" r="86" s="5" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4195906791483446</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="23.95" r="87" s="5" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-0.1055728090000841</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="88" s="5" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-0.3530033607793697</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="23.95" r="89" s="5" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-0.7517182334192896</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="90" s="5" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="1" t="n">
+        <v>1.235702260395516</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row customHeight="1" ht="102.7" r="91" s="5" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>0.3046038495400858</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="92" s="5" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>1.215665546406877</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="93" s="5" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>0.3779644730092273</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="94" s="5" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="95" s="5" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="C95" s="1" t="n">
+        <v>0.6123724356957947</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="96" s="5" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="97" s="5" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>-0.7139612232263224</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="98" s="5" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>-1.102597835208516</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="99" s="5" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>-2.622035526990773</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="226.45" r="100" s="5" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>-0.4055617017222359</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="226.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="101" s="5" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>3.223493924805026</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="170.2" r="102" s="5" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>2.496710850223124</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="170.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="158.95" r="103" s="5" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>-0.2241198225555419</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="158.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="104" s="5" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>3.117321638254671</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="105" s="5" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>-0.3117527983883147</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="106" s="5" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>2.218415398160343</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="107" s="5" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>4.122682798775624</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="12.8" r="108" s="5" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>-0.7238276146305029</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="109" s="5" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>1.707106781186547</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="80.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="113.95" r="110" s="5" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>2.153846153846154</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="113.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="111" s="5" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>1.923099494126358</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="293.95" r="112" s="5" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>2.486301082920587</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="293.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="125.2" r="113" s="5" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>1.130667542166614</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="125.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="271.45" r="114" s="5" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>2.519763153394848</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="271.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="115" s="5" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>2.263861199951704</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="116" s="5" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>1.416666666666667</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="117" s="5" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>1.609207699080172</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="118" s="5" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>2.154700538379251</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="119" s="5" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>-1.88026313198215</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="147.7" r="120" s="5" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>1.620173672946042</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="147.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="136.45" r="121" s="5" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>-1.314485451016576</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="136.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="35.2" r="122" s="5" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>0.772987951680997</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="91.45" r="123" s="5" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>2.324532357065044</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="91.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="57.7" r="124" s="5" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>0.4288450139351179</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="57.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="102.7" r="125" s="5" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>0.4833682445228318</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="102.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="170.2" r="126" s="5" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>-0.8953152154819572</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="170.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="127" s="5" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>-2.19596974779263</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="68.95" r="128" s="5" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>-1</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="68.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row customHeight="1" ht="80.2" r="129" s="5" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>2.909717652294684</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>133</v>
       </c>
     </row>
+    <row customHeight="1" ht="113.95" r="130" s="5" spans="1:4"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>